--- a/Table S1 The CEE-EKB  containing 134 documents.xlsx
+++ b/Table S1 The CEE-EKB  containing 134 documents.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRes\QA_for_CEE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2EE4B-B8EB-4AC9-A60F-6D710B154785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEE knowledge framework" sheetId="14" r:id="rId1"/>
@@ -20,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="455">
   <si>
     <t>The CEE knowledge framework with 18 second-level and 59 third-level knowledge sub-domains</t>
   </si>
@@ -65,7 +69,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
       </rPr>
       <t>资金时间价值计算及应用</t>
     </r>
@@ -81,7 +84,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
       </rPr>
       <t>利息的计算</t>
     </r>
@@ -97,7 +99,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
       </rPr>
       <t>名义利率与有效利率计算</t>
     </r>
@@ -113,7 +114,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
       </rPr>
       <t>资金等值计算及应用</t>
     </r>
@@ -129,7 +129,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
       </rPr>
       <t>经济效果评价</t>
     </r>
@@ -316,7 +315,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>S10</t>
     </r>
@@ -349,7 +347,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>S11</t>
     </r>
@@ -619,7 +616,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D001 CECA GC1-2015 </t>
     </r>
@@ -640,7 +636,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D002 CECA GC3-2010 </t>
     </r>
@@ -661,7 +656,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D003 CECA GC4-2017 </t>
     </r>
@@ -682,7 +676,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D004 CECA GC5-2010</t>
     </r>
@@ -703,7 +696,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D005 CECA GC6-2011 </t>
     </r>
@@ -724,7 +716,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D006 CECA GC7-2012</t>
     </r>
@@ -745,7 +736,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D007 CECA GC9-2013</t>
     </r>
@@ -766,7 +756,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D008 GB 50500-2013</t>
     </r>
@@ -787,7 +776,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D009 GB 50501-2007 </t>
     </r>
@@ -808,7 +796,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D010 GB 50854-2013</t>
     </r>
@@ -829,7 +816,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D011 GB 50855-2013</t>
     </r>
@@ -850,7 +836,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D012 GB 50856-2013</t>
     </r>
@@ -871,7 +856,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D013 GB 50857-2013</t>
     </r>
@@ -892,7 +876,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D014 GB 50858-2013</t>
     </r>
@@ -913,7 +896,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D015 GB 50859-2013</t>
     </r>
@@ -934,7 +916,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D016 GB 50860-2013</t>
     </r>
@@ -955,7 +936,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D017 GB 50861-2013</t>
     </r>
@@ -976,7 +956,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D018 GB 50862-2013</t>
     </r>
@@ -997,7 +976,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D019 GBT 50353-2013 </t>
     </r>
@@ -1018,7 +996,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D020 GBT 50531-2009 </t>
     </r>
@@ -1039,7 +1016,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D021 GBT 50851-2013 </t>
     </r>
@@ -1060,7 +1036,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D022 GBT 51095-2015 </t>
     </r>
@@ -1081,7 +1056,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D023 GBT 51235-2017</t>
     </r>
@@ -1102,7 +1076,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D024 GBT 51262-2017 </t>
     </r>
@@ -1123,7 +1096,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D025 GBT 51269-2017 </t>
     </r>
@@ -1144,7 +1116,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D026 GBT 51290-2018 </t>
     </r>
@@ -1165,7 +1136,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D027 T_C CEAS 001-2022 </t>
     </r>
@@ -1186,7 +1156,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D028 T_C CEAS 002-2022</t>
     </r>
@@ -1207,7 +1176,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">D029 T_C CEAS 003-2022 </t>
     </r>
@@ -1228,7 +1196,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D030 T_C CEAS 005-2023</t>
     </r>
@@ -1249,7 +1216,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D031</t>
     </r>
@@ -1270,7 +1236,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D032</t>
     </r>
@@ -1291,7 +1256,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D033</t>
     </r>
@@ -1312,7 +1276,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D034</t>
     </r>
@@ -1328,7 +1291,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>[2002]619</t>
     </r>
@@ -1349,7 +1311,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D035</t>
     </r>
@@ -1365,7 +1326,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1381,7 +1341,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2019</t>
     </r>
@@ -1397,7 +1356,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1413,7 +1371,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1426,7 +1383,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D036</t>
     </r>
@@ -1447,7 +1403,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D037</t>
     </r>
@@ -1468,7 +1423,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D038</t>
     </r>
@@ -1484,7 +1438,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1500,7 +1453,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2023</t>
     </r>
@@ -1516,7 +1468,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> 115</t>
     </r>
@@ -1532,7 +1483,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1545,7 +1495,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D039</t>
     </r>
@@ -1561,7 +1510,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1577,7 +1525,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>[2006]213</t>
     </r>
@@ -1593,7 +1540,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1606,7 +1552,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D040</t>
     </r>
@@ -1627,7 +1572,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D041</t>
     </r>
@@ -1648,7 +1592,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D042</t>
     </r>
@@ -1664,7 +1607,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1680,7 +1622,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1696,7 +1637,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2010</t>
     </r>
@@ -1712,7 +1652,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>98</t>
     </r>
@@ -1728,7 +1667,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1741,7 +1679,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D043</t>
     </r>
@@ -1757,7 +1694,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2013</t>
     </r>
@@ -1773,7 +1709,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>44</t>
     </r>
@@ -1794,7 +1729,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D044</t>
     </r>
@@ -1810,7 +1744,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1826,7 +1759,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2015</t>
     </r>
@@ -1842,7 +1774,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>299</t>
     </r>
@@ -1863,7 +1794,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D045</t>
     </r>
@@ -1884,7 +1814,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D046</t>
     </r>
@@ -1900,7 +1829,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1916,7 +1844,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2016</t>
     </r>
@@ -1932,7 +1859,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>504</t>
     </r>
@@ -1948,7 +1874,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1961,7 +1886,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D047</t>
     </r>
@@ -1982,7 +1906,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D048</t>
     </r>
@@ -2003,7 +1926,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D049</t>
     </r>
@@ -2019,7 +1941,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2035,7 +1956,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)GF-2017-0201</t>
     </r>
@@ -2048,7 +1968,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D050</t>
     </r>
@@ -2064,7 +1983,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(2015</t>
     </r>
@@ -2080,7 +1998,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2093,7 +2010,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D051</t>
     </r>
@@ -2114,7 +2030,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D052</t>
     </r>
@@ -2135,7 +2050,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D053</t>
     </r>
@@ -2156,7 +2070,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D054</t>
     </r>
@@ -2172,7 +2085,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2188,7 +2100,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)GF-2020-0216</t>
     </r>
@@ -2201,7 +2112,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D055</t>
     </r>
@@ -2217,7 +2127,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>[2004]16</t>
     </r>
@@ -2238,7 +2147,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D056</t>
     </r>
@@ -2259,7 +2167,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D057</t>
     </r>
@@ -2280,7 +2187,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D058</t>
     </r>
@@ -2301,7 +2207,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D059</t>
     </r>
@@ -2322,7 +2227,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D060</t>
     </r>
@@ -2343,7 +2247,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D061</t>
     </r>
@@ -2359,7 +2262,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2375,7 +2277,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2388,7 +2289,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D062</t>
     </r>
@@ -2404,7 +2304,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2420,7 +2319,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2433,7 +2331,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D063</t>
     </r>
@@ -2454,7 +2351,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D064</t>
     </r>
@@ -2475,7 +2371,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D065</t>
     </r>
@@ -2496,7 +2391,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D066</t>
     </r>
@@ -2517,7 +2411,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D067</t>
     </r>
@@ -2538,7 +2431,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D068</t>
     </r>
@@ -2559,7 +2451,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D069</t>
     </r>
@@ -2580,7 +2471,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D070</t>
     </r>
@@ -2596,7 +2486,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2612,7 +2501,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)(</t>
     </r>
@@ -2628,7 +2516,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2013</t>
     </r>
@@ -2644,7 +2531,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>17</t>
     </r>
@@ -2660,7 +2546,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2673,7 +2558,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D071</t>
     </r>
@@ -2694,7 +2578,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D072</t>
     </r>
@@ -2710,7 +2593,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2726,7 +2608,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -2747,7 +2628,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D073</t>
     </r>
@@ -2763,7 +2643,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2</t>
     </r>
@@ -2779,7 +2658,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -2800,7 +2678,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D074</t>
     </r>
@@ -2816,7 +2693,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>3</t>
     </r>
@@ -2832,7 +2708,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -2853,7 +2728,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D075</t>
     </r>
@@ -2869,7 +2743,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>4</t>
     </r>
@@ -2885,7 +2758,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -2906,7 +2778,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D076</t>
     </r>
@@ -2922,7 +2793,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>5</t>
     </r>
@@ -2938,7 +2808,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -2959,7 +2828,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D077</t>
     </r>
@@ -2975,7 +2843,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>6</t>
     </r>
@@ -2991,7 +2858,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3012,7 +2878,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D078</t>
     </r>
@@ -3028,7 +2893,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>7</t>
     </r>
@@ -3044,7 +2908,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3065,7 +2928,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D079</t>
     </r>
@@ -3081,7 +2943,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>8</t>
     </r>
@@ -3097,7 +2958,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3118,7 +2978,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D080</t>
     </r>
@@ -3134,7 +2993,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>9</t>
     </r>
@@ -3150,7 +3008,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3171,7 +3028,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D081</t>
     </r>
@@ -3187,7 +3043,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>10</t>
     </r>
@@ -3203,7 +3058,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3224,7 +3078,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D082</t>
     </r>
@@ -3240,7 +3093,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>11</t>
     </r>
@@ -3256,7 +3108,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3277,7 +3128,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D083</t>
     </r>
@@ -3293,7 +3143,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>12</t>
     </r>
@@ -3309,7 +3158,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3330,7 +3178,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D084</t>
     </r>
@@ -3346,7 +3193,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>13</t>
     </r>
@@ -3362,7 +3208,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3383,7 +3228,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D085</t>
     </r>
@@ -3399,7 +3243,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>14</t>
     </r>
@@ -3415,7 +3258,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3436,7 +3278,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D086</t>
     </r>
@@ -3452,7 +3293,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>15</t>
     </r>
@@ -3468,7 +3308,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3489,7 +3328,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D087</t>
     </r>
@@ -3505,7 +3343,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>16</t>
     </r>
@@ -3521,7 +3358,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3542,7 +3378,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D088</t>
     </r>
@@ -3558,7 +3393,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>17</t>
     </r>
@@ -3574,7 +3408,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3595,7 +3428,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D089</t>
     </r>
@@ -3611,7 +3443,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>18</t>
     </r>
@@ -3627,7 +3458,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3648,7 +3478,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D090</t>
     </r>
@@ -3664,7 +3493,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>19</t>
     </r>
@@ -3680,7 +3508,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3701,7 +3528,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D091</t>
     </r>
@@ -3717,7 +3543,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>20</t>
     </r>
@@ -3733,7 +3558,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3754,7 +3578,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D092</t>
     </r>
@@ -3770,7 +3593,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>21</t>
     </r>
@@ -3786,7 +3608,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3807,7 +3628,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D093</t>
     </r>
@@ -3823,7 +3643,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>22</t>
     </r>
@@ -3844,7 +3663,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D094</t>
     </r>
@@ -3860,7 +3678,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>23</t>
     </r>
@@ -3876,7 +3693,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3897,7 +3713,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D095</t>
     </r>
@@ -3913,7 +3728,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>24</t>
     </r>
@@ -3929,7 +3743,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -3950,7 +3763,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D096</t>
     </r>
@@ -3966,7 +3778,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>25</t>
     </r>
@@ -3982,7 +3793,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4003,7 +3813,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D097</t>
     </r>
@@ -4019,7 +3828,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>26</t>
     </r>
@@ -4035,7 +3843,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4056,7 +3863,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D098</t>
     </r>
@@ -4072,7 +3878,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>27</t>
     </r>
@@ -4088,7 +3893,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4109,7 +3913,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D099</t>
     </r>
@@ -4125,7 +3928,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>28</t>
     </r>
@@ -4141,7 +3943,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4162,7 +3963,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D100</t>
     </r>
@@ -4178,7 +3978,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>29</t>
     </r>
@@ -4194,7 +3993,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4215,7 +4013,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D101</t>
     </r>
@@ -4231,7 +4028,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>30</t>
     </r>
@@ -4247,7 +4043,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4268,7 +4063,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D102</t>
     </r>
@@ -4284,7 +4078,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>31</t>
     </r>
@@ -4300,7 +4093,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4321,7 +4113,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D103</t>
     </r>
@@ -4337,7 +4128,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>32</t>
     </r>
@@ -4353,7 +4143,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4374,7 +4163,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D104</t>
     </r>
@@ -4390,7 +4178,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>33</t>
     </r>
@@ -4406,7 +4193,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4427,7 +4213,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D105</t>
     </r>
@@ -4443,7 +4228,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>34</t>
     </r>
@@ -4459,7 +4243,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4480,7 +4263,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D106</t>
     </r>
@@ -4496,7 +4278,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>35</t>
     </r>
@@ -4512,7 +4293,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4533,7 +4313,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D107</t>
     </r>
@@ -4549,7 +4328,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>36</t>
     </r>
@@ -4565,7 +4343,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4586,7 +4363,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D108</t>
     </r>
@@ -4602,7 +4378,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>37</t>
     </r>
@@ -4618,7 +4393,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4639,7 +4413,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D109</t>
     </r>
@@ -4655,7 +4428,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>38</t>
     </r>
@@ -4671,7 +4443,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4692,7 +4463,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D110</t>
     </r>
@@ -4708,7 +4478,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>——</t>
     </r>
@@ -4729,7 +4498,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D111</t>
     </r>
@@ -4750,7 +4518,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D112</t>
     </r>
@@ -4771,7 +4538,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D113</t>
     </r>
@@ -4792,7 +4558,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D114</t>
     </r>
@@ -4813,7 +4578,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D115</t>
     </r>
@@ -4834,7 +4598,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D116</t>
     </r>
@@ -4855,7 +4618,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D117</t>
     </r>
@@ -4876,7 +4638,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D118</t>
     </r>
@@ -4897,7 +4658,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D119</t>
     </r>
@@ -4913,7 +4673,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2023</t>
     </r>
@@ -4934,7 +4693,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D120</t>
     </r>
@@ -4955,7 +4713,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D121</t>
     </r>
@@ -4976,7 +4733,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D122</t>
     </r>
@@ -4997,7 +4753,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D123</t>
     </r>
@@ -5018,7 +4773,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D124</t>
     </r>
@@ -5039,7 +4793,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D125</t>
     </r>
@@ -5060,7 +4813,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D126</t>
     </r>
@@ -5081,7 +4833,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D127</t>
     </r>
@@ -5097,7 +4848,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>2012</t>
     </r>
@@ -5118,7 +4868,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D128</t>
     </r>
@@ -5139,7 +4888,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D129</t>
     </r>
@@ -5160,7 +4908,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D130</t>
     </r>
@@ -5181,7 +4928,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D131</t>
     </r>
@@ -5202,7 +4948,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D132</t>
     </r>
@@ -5223,7 +4968,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D133</t>
     </r>
@@ -5244,7 +4988,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
       </rPr>
       <t>D134</t>
     </r>
@@ -5316,22 +5059,13 @@
   </si>
   <si>
     <t>6 years</t>
-  </si>
-  <si>
-    <t>4 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -5342,25 +5076,22 @@
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5369,12 +5100,10 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5382,342 +5111,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -5725,269 +5131,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5999,9 +5151,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6025,26 +5174,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -6058,68 +5195,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFC000"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFFC000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6369,994 +5486,1017 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.9666666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.2583333333333" style="12" customWidth="1"/>
-    <col min="3" max="3" width="29.675" customWidth="1"/>
-    <col min="4" max="4" width="53.0416666666667" customWidth="1"/>
-    <col min="5" max="5" width="28.4166666666667" style="13" customWidth="1"/>
-    <col min="6" max="6" width="28.0333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="28.4140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="22.5">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" s="11" customFormat="1" ht="27" spans="1:7">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="28">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="19" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="19" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="19" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="19" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="19" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="19" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="19" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="19" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="19" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="19" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="19" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="19" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="19" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="19" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="10"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="19" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="10"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="19" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="19" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="19" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="10"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="19" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="19" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="10"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="19" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="19" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="19" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G50" s="10"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="9" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="19" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="10"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="19" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="19" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="10"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="19" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G55" s="10"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="9" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="10"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="19" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="19" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G58" s="10"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="9" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G59" s="10"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="19" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="19" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G61" s="10"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="21"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="21"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="21"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A61"/>
     <mergeCell ref="B3:B61"/>
@@ -7373,3357 +6513,3345 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="80.1" customWidth="1"/>
-    <col min="3" max="3" width="67.6833333333333" customWidth="1"/>
-    <col min="4" max="4" width="67.3416666666667" customWidth="1"/>
+    <col min="1" max="1" width="45.9140625" customWidth="1"/>
+    <col min="2" max="2" width="80.08203125" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="22.5" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="22.5">
+      <c r="A1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="13.85" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="14.5">
+      <c r="A2" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="10" t="s">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9" t="s">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9" t="s">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10" t="s">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="10" t="s">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="10" t="s">
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="10" t="s">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="10" t="s">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="10" t="s">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="10" t="s">
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="10" t="s">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="10" t="s">
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="10" t="s">
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9" t="s">
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="10" t="s">
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9" t="s">
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="10" t="s">
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="10" t="s">
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="10" t="s">
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="10" t="s">
+      <c r="A152" s="23"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9" t="s">
+      <c r="A153" s="23"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="10" t="s">
+      <c r="A154" s="23"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9" t="s">
+      <c r="A155" s="23"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="10" t="s">
+      <c r="A156" s="23"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9" t="s">
+      <c r="A157" s="23"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="D157" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="10" t="s">
+      <c r="A158" s="23"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="10" t="s">
+      <c r="A159" s="23"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9" t="s">
+      <c r="A160" s="23"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="10" t="s">
+      <c r="A161" s="23"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="10" t="s">
+      <c r="A162" s="23"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="10" t="s">
+      <c r="A163" s="23"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9" t="s">
+      <c r="A164" s="23"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="10" t="s">
+      <c r="A165" s="23"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="10" t="s">
+      <c r="A166" s="23"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9" t="s">
+      <c r="A167" s="23"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="10" t="s">
+      <c r="A168" s="23"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="10" t="s">
+      <c r="A169" s="23"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9" t="s">
+      <c r="A170" s="23"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D170" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="10" t="s">
+      <c r="A171" s="23"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="10" t="s">
+      <c r="A174" s="23"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="D175" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D176" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="10" t="s">
+      <c r="A177" s="23"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="D178" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D179" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D180" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D181" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="D182" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="10" t="s">
+      <c r="A185" s="23"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D186" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D187" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D188" s="10" t="s">
+      <c r="D188" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="10" t="s">
+      <c r="A189" s="23"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D189" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="D191" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="10" t="s">
+      <c r="A192" s="23"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="10" t="s">
+      <c r="A194" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C196" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D196" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D197" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9" t="s">
+      <c r="A198" s="23"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D198" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="10" t="s">
+      <c r="A199" s="23"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D201" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="10" t="s">
+      <c r="A202" s="23"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C203" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D203" s="10" t="s">
+      <c r="D203" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="10" t="s">
+      <c r="A204" s="23"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="10"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="10"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="10"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="10"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="10"/>
-      <c r="B209" s="10"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="10"/>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="10"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="10"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="10"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A151:A171"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="B151:B171"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B118:B120"/>
     <mergeCell ref="A197:A199"/>
     <mergeCell ref="A201:A202"/>
     <mergeCell ref="A203:A204"/>
@@ -10740,288 +9868,272 @@
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B151:B171"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A151:A171"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.075" customWidth="1"/>
-    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="15.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.025" customWidth="1"/>
-    <col min="5" max="5" width="44.8166666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="22.5">
+      <c r="A1" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>